--- a/charactersList.xlsx
+++ b/charactersList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J.C. Hu\VSCode-workspace\React\Conan-Episode-Queryer\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B25F623-DF2D-4BCB-969E-E1DEA4FE4961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DFBA36-A734-4279-BF39-F538D27C4DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{3D5EEE81-835F-4DF7-BE62-7B0C12643043}"/>
   </bookViews>
@@ -198,10 +198,6 @@
     <t>安德烈·卡邁爾</t>
   </si>
   <si>
-    <t>水無怜奈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本堂瑛祐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,6 +401,10 @@
   </si>
   <si>
     <t>黒田兵衛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水無怜奈(基爾)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,15 +791,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A052C52B-83C0-46AA-92AE-AFE7BD51B9CA}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -1143,90 +1143,90 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
